--- a/medicine/Psychotrope/Union_des_Maisons_de_Champagne/Union_des_Maisons_de_Champagne.xlsx
+++ b/medicine/Psychotrope/Union_des_Maisons_de_Champagne/Union_des_Maisons_de_Champagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Union des Maisons de Champagne (UMC) est le syndicat professionnel des Maisons de Champagne, quelle que soit leur importance. Sa mission première est la défense des intérêts de ses membres dans tous les domaines qui régissent leur activité. Il se préoccupe en particulier d'assurer la défense du mot « Champagne » et son utilisation abusive. 
 Créée durant la Seconde Guerre mondiale face à l'occupant, l'UMC est jusqu'en 1994 une fédération de syndicats - le Syndicat de Grandes Marques et le Syndicat de Négociants - à laquelle les négociants adhérent directement par la suite, et qu'elle rassemble.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Est constitué le 4 novembre 1882 le Syndicat du Commerce des vins de Champagne, à l’initiative des dirigeants des maisons Heidsieck &amp; Cie, Giesler &amp; Cie et G.H.Mumm &amp; Cie, reconnu officiellement par la loi du 21 mars 1884 qui autorise la création des syndicats professionnels.
 Selon ses statuts, il a pour but « de protéger, tant en France qu’à l’étranger, le commerce des vins mousseux de Champagne, de défendre les intérêts généraux de ce commerce en France dans l’examen des questions d’octroi, de régie, de tarifs, de transports, de propriété industrielle, c’est-à-dire de marques, noms de commerce, lieux d’origine, etc., […] à l’étranger dans l’examen des questions de tarifs internationaux, de douane, de propriété industrielle, de contrefaçons tant de marques que de produits, et de toutes autres fraudes… ».
